--- a/FinalProject/ds_kw.xlsx
+++ b/FinalProject/ds_kw.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelapaiva/Documents/Data Science Course - UoT/titanic-2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelapaiva/Documents/GitHub/DataScience/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447532B6-8F8D-5A41-812C-B220D07EC8C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF2511-AD45-0A41-A877-DD19D47C7837}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,18 +64,12 @@
     <t>Machine Learning</t>
   </si>
   <si>
-    <t>ML</t>
-  </si>
-  <si>
     <t>Artificial Intelligence</t>
   </si>
   <si>
     <t>AI</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>Post-secondary</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
     <t>Scala</t>
   </si>
   <si>
-    <t>Tableu</t>
-  </si>
-  <si>
     <t>Periscope</t>
   </si>
   <si>
@@ -242,6 +233,15 @@
   </si>
   <si>
     <t>MBA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R </t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ML </t>
   </si>
 </sst>
 </file>
@@ -308,11 +308,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -633,7 +634,7 @@
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -788,8 +789,8 @@
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -803,7 +804,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -817,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>5</v>
@@ -830,8 +831,8 @@
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
+      <c r="C14" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -845,7 +846,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -859,7 +860,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
@@ -873,7 +874,7 @@
         <v>13</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -887,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -901,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -915,7 +916,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -929,7 +930,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
@@ -943,7 +944,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>5</v>
@@ -957,7 +958,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -971,7 +972,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
@@ -985,7 +986,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
@@ -999,7 +1000,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -1013,7 +1014,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -1027,7 +1028,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -1041,7 +1042,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -1055,7 +1056,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -1069,7 +1070,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -1083,7 +1084,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -1097,7 +1098,7 @@
         <v>23</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -1111,7 +1112,7 @@
         <v>24</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -1125,7 +1126,7 @@
         <v>24</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -1139,7 +1140,7 @@
         <v>24</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -1153,7 +1154,7 @@
         <v>25</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -1167,7 +1168,7 @@
         <v>26</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
@@ -1181,7 +1182,7 @@
         <v>27</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
@@ -1195,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -1209,7 +1210,7 @@
         <v>29</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>5</v>
@@ -1223,7 +1224,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
@@ -1237,7 +1238,7 @@
         <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -1251,7 +1252,7 @@
         <v>32</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
@@ -1266,7 +1267,7 @@
         <v>32</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>5</v>
@@ -1280,7 +1281,7 @@
         <v>33</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
@@ -1294,7 +1295,7 @@
         <v>33</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
@@ -1308,7 +1309,7 @@
         <v>33</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
@@ -1322,7 +1323,7 @@
         <v>33</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
@@ -1336,7 +1337,7 @@
         <v>34</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
@@ -1350,7 +1351,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
@@ -1364,7 +1365,7 @@
         <v>36</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
@@ -1378,7 +1379,7 @@
         <v>37</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
@@ -1392,7 +1393,7 @@
         <v>38</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
@@ -1406,7 +1407,7 @@
         <v>39</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
@@ -1420,7 +1421,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
@@ -1434,7 +1435,7 @@
         <v>41</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
@@ -1448,7 +1449,7 @@
         <v>42</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
@@ -1462,7 +1463,7 @@
         <v>43</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
@@ -1476,7 +1477,7 @@
         <v>44</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
@@ -1490,7 +1491,7 @@
         <v>45</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>5</v>
@@ -1504,7 +1505,7 @@
         <v>46</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>5</v>
@@ -1518,7 +1519,7 @@
         <v>47</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>5</v>
@@ -1532,7 +1533,7 @@
         <v>48</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>5</v>
@@ -1547,7 +1548,7 @@
         <v>49</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>5</v>
@@ -1562,7 +1563,7 @@
         <v>50</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>5</v>
@@ -1577,7 +1578,7 @@
         <v>51</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>5</v>
@@ -1592,7 +1593,7 @@
         <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>5</v>
@@ -1607,7 +1608,7 @@
         <v>53</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>5</v>
@@ -1622,10 +1623,10 @@
         <v>54</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/FinalProject/ds_kw.xlsx
+++ b/FinalProject/ds_kw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelapaiva/Documents/GitHub/DataScience/FinalProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EF2511-AD45-0A41-A877-DD19D47C7837}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26169DC2-509C-4646-8F59-5C3DFE534BCF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>kwID</t>
   </si>
@@ -235,13 +235,22 @@
     <t>MBA</t>
   </si>
   <si>
-    <t xml:space="preserve"> R </t>
-  </si>
-  <si>
     <t>Tableau</t>
   </si>
   <si>
     <t xml:space="preserve"> ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R </t>
+  </si>
+  <si>
+    <t>R,</t>
+  </si>
+  <si>
+    <t>R)</t>
+  </si>
+  <si>
+    <t>,R,</t>
   </si>
 </sst>
 </file>
@@ -631,10 +640,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -790,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>5</v>
@@ -831,8 +840,8 @@
       <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>71</v>
+      <c r="C14" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
@@ -843,10 +852,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>5</v>
@@ -857,10 +866,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>5</v>
@@ -871,10 +880,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>5</v>
@@ -885,10 +894,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>5</v>
@@ -899,10 +908,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>5</v>
@@ -913,10 +922,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>5</v>
@@ -927,10 +936,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>5</v>
@@ -941,10 +950,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>5</v>
@@ -955,10 +964,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>5</v>
@@ -972,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>5</v>
@@ -983,10 +992,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>5</v>
@@ -997,10 +1006,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>5</v>
@@ -1011,10 +1020,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>5</v>
@@ -1025,10 +1034,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>5</v>
@@ -1039,10 +1048,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>5</v>
@@ -1053,10 +1062,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>5</v>
@@ -1067,10 +1076,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>5</v>
@@ -1081,10 +1090,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>5</v>
@@ -1095,10 +1104,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -1109,10 +1118,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>5</v>
@@ -1123,10 +1132,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -1137,10 +1146,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>5</v>
@@ -1151,10 +1160,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>5</v>
@@ -1165,10 +1174,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>5</v>
@@ -1179,10 +1188,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>5</v>
@@ -1193,10 +1202,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>5</v>
@@ -1207,10 +1216,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>5</v>
@@ -1221,10 +1230,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>5</v>
@@ -1235,10 +1244,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>5</v>
@@ -1249,25 +1258,24 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>5</v>
@@ -1278,10 +1286,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>5</v>
@@ -1292,30 +1300,31 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F47" s="3"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1323,262 +1332,259 @@
         <v>33</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>5</v>
@@ -1590,10 +1596,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>5</v>
@@ -1605,10 +1611,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>5</v>
@@ -1620,12 +1626,57 @@
         <v>69</v>
       </c>
       <c r="B70" s="2">
+        <v>51</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2">
+        <v>52</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2">
+        <v>53</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2">
         <v>54</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>69</v>
       </c>
     </row>
